--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2408153.159526417</v>
+        <v>2514226.757679261</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9230594.319293045</v>
+        <v>9245746.234420775</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>274.7944255145775</v>
+        <v>110.922047797356</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>111.510973923159</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>238.9242064225919</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>129.1357704294045</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>257.8430835959656</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>150.0235148602557</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>216.7825586280706</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>42.24368752399639</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.00046772082109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>181.9694639113391</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.62877309849785</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1582,19 +1584,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>134.0367616438387</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.3783204776929</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>246.6094895952584</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>96.99837838564352</v>
       </c>
       <c r="H19" t="n">
-        <v>23.62554568141313</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>143.6328115793024</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>164.0001714587653</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>33.38664646283016</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>112.6849016609959</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>151.8518831495024</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>243.1373908222621</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>16.92025364381849</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>33.01627976944152</v>
+        <v>5.623597659135275</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>73.57849775387133</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.5006452705937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.142551756775</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>167.1438108880261</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>172.026033500079</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>1994.534761060472</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>1621.069002799393</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686088</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064765</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080142</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.3613929424835</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C4" t="n">
-        <v>214.4252100145765</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1523.808772677367</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1523.808772677367</v>
       </c>
       <c r="V4" t="n">
-        <v>893.5711421229742</v>
+        <v>1269.12428447148</v>
       </c>
       <c r="W4" t="n">
-        <v>604.1539720860136</v>
+        <v>979.7071144345191</v>
       </c>
       <c r="X4" t="n">
-        <v>604.1539720860136</v>
+        <v>751.7175635365018</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.3613929424835</v>
+        <v>530.9249843929716</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1832.276849100055</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="C5" t="n">
-        <v>1463.314332159643</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="D5" t="n">
-        <v>1463.314332159643</v>
+        <v>1378.810406950777</v>
       </c>
       <c r="E5" t="n">
-        <v>1077.526079561399</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>666.5401747717915</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X5" t="n">
-        <v>2609.016021139988</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y5" t="n">
-        <v>2218.876689164177</v>
+        <v>1378.810406950777</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>527.264525153022</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>821.9680821844936</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.6489837069648</v>
+        <v>792.054313852967</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1685.925186946773</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1464.158571516299</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1175.055704641943</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V7" t="n">
-        <v>1175.055704641943</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W7" t="n">
-        <v>885.6385346049822</v>
+        <v>1194.495357826737</v>
       </c>
       <c r="X7" t="n">
-        <v>657.6489837069648</v>
+        <v>1194.495357826737</v>
       </c>
       <c r="Y7" t="n">
-        <v>657.6489837069648</v>
+        <v>973.7027786832067</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>3029.404953444628</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2676.636298174514</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.938622099438</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>628.5472171493652</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1431.889936111164</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1177.205447905277</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>1177.205447905277</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>1177.205447905277</v>
       </c>
       <c r="Y10" t="n">
-        <v>628.5472171493652</v>
+        <v>956.4128687617472</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5072,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687975</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>982.2858920990373</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990373</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5264,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532263</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1728.360585969844</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1473.676097763957</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1184.258927726996</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.466348583466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400717</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F19" t="n">
-        <v>366.9636532421613</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G19" t="n">
-        <v>199.7675539570412</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5768,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.6143379232836</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2234.833731772762</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2015.232266795703</v>
+        <v>2031.40580664033</v>
       </c>
       <c r="U22" t="n">
-        <v>1726.157040139901</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V22" t="n">
-        <v>1471.472551934014</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W22" t="n">
-        <v>1182.055381897053</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.055381897053</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y22" t="n">
-        <v>961.2628027535234</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2978.516248701936</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2978.516248701936</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2828.3996092896</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2680.486515707207</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2533.596568209296</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2533.596568209296</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y28" t="n">
-        <v>3160.164713532175</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6463,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.2213777565</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4262.384993990607</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703114</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424045</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D34" t="n">
-        <v>376.4492432300688</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E34" t="n">
-        <v>376.4492432300688</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F34" t="n">
-        <v>376.4492432300688</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G34" t="n">
-        <v>209.2531439449487</v>
+        <v>181.5837680759525</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6925,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.6374272687974</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y37" t="n">
-        <v>800.6374272687974</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7196,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,19 +7259,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1519.553721644579</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="44">
@@ -7637,34 +7639,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>4517.069482196493</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V46" t="n">
-        <v>4262.384993990607</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>3972.967823953646</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>3744.978273055629</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70.03064962107902</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>105.1672460959151</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>152.1477127454055</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>65.33133491134421</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>39.57498479398575</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="H19" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>37.39347442234222</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>53.405278868523</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>113.047316183739</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>27.609811185228</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>66.73277020259238</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>43.04708356698202</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>208.7894017452187</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.2784330767823</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>212.9445005827197</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.0840080815011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>0.3804465798160095</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>84.99383243580189</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -26077,7 +26079,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891651</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>808444.9971628366</v>
+        <v>816169.5029142287</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>808444.9971628366</v>
+        <v>816169.5029142287</v>
       </c>
     </row>
     <row r="4">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403383</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309555</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309552</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309562</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26445,19 +26447,19 @@
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744228</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-888285.605807262</v>
+        <v>-706904.3213479271</v>
       </c>
       <c r="C6" t="n">
-        <v>440459.1399203308</v>
+        <v>407847.4622279924</v>
       </c>
       <c r="D6" t="n">
-        <v>440459.1399203308</v>
+        <v>247831.9994799921</v>
       </c>
       <c r="E6" t="n">
-        <v>190276.3667367483</v>
+        <v>190276.3667367485</v>
       </c>
       <c r="F6" t="n">
-        <v>515688.8285441035</v>
+        <v>515688.8285441034</v>
       </c>
       <c r="G6" t="n">
         <v>515688.8285441035</v>
       </c>
       <c r="H6" t="n">
-        <v>515688.8285441034</v>
+        <v>515688.8285441035</v>
       </c>
       <c r="I6" t="n">
         <v>515688.8285441035</v>
       </c>
       <c r="J6" t="n">
-        <v>298157.6261468262</v>
+        <v>348083.6507341207</v>
       </c>
       <c r="K6" t="n">
-        <v>515688.8285441036</v>
+        <v>515688.8285441034</v>
       </c>
       <c r="L6" t="n">
-        <v>515688.8285441034</v>
+        <v>467394.8585359126</v>
       </c>
       <c r="M6" t="n">
         <v>430633.8006085916</v>
@@ -26558,7 +26560,7 @@
         <v>515688.8285441035</v>
       </c>
       <c r="O6" t="n">
-        <v>515688.8285441034</v>
+        <v>515688.8285441036</v>
       </c>
       <c r="P6" t="n">
         <v>515688.8285441034</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,28 +26804,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>74.44654320283553</v>
+        <v>238.318920920057</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>109.237722074053</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>13.21343690123612</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>252.7945996428573</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>153.0786420574879</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>39.74551047118615</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>69.74043970852037</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>285.5085709461385</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.2374709352325</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>104.2423742942737</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.9558802535969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>300.768778117042</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328822</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366847</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>437.853104691376</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>652.0478969157699</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760385</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33977,22 +33979,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>526.2989357561996</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>473.8581708471796</v>
+        <v>288.8958573929172</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>405.455331617202</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>291.7547423393999</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>169.4270660337087</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O18" t="n">
-        <v>191.3582339884378</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8786972770457</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>509.9138629937516</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8925903961643</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37546,7 +37548,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37625,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>394.9572236728663</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>342.5164587638463</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2514226.757679261</v>
+        <v>2510131.116174495</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>21.12945459754877</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>110.922047797356</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>90.35553756853483</v>
       </c>
       <c r="T4" t="n">
-        <v>111.510973923159</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>129.1357704294045</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>172.806473537693</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>49.15028699323076</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>216.7825586280706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.74698963171117</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>42.24368752399639</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>181.9694639113391</v>
+        <v>220.2858449881296</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>134.0367616438387</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>79.05856366754465</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1900,10 +1900,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>96.99837838564352</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
-        <v>164.0001714587653</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>33.38664646283016</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2763,25 +2763,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>34.67929910923817</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>16.92025364381849</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>5.623597659135275</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>73.57849775387133</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.142551756775</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>167.1438108880261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E2" t="n">
         <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2540.996444968288</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2540.996444968288</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2287.415384232468</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583054</v>
+        <v>1956.352496888897</v>
       </c>
       <c r="W2" t="n">
-        <v>1994.534761060472</v>
+        <v>1603.583841618783</v>
       </c>
       <c r="X2" t="n">
-        <v>1621.069002799393</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="Y2" t="n">
-        <v>1230.929670823581</v>
+        <v>1230.118083357703</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300791</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.2765195627319</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1442.594493823883</v>
       </c>
       <c r="T4" t="n">
-        <v>1523.808772677367</v>
+        <v>1219.616013018619</v>
       </c>
       <c r="U4" t="n">
-        <v>1523.808772677367</v>
+        <v>1219.616013018619</v>
       </c>
       <c r="V4" t="n">
-        <v>1269.12428447148</v>
+        <v>1219.616013018619</v>
       </c>
       <c r="W4" t="n">
-        <v>979.7071144345191</v>
+        <v>1219.616013018619</v>
       </c>
       <c r="X4" t="n">
-        <v>751.7175635365018</v>
+        <v>991.6264621206012</v>
       </c>
       <c r="Y4" t="n">
-        <v>530.9249843929716</v>
+        <v>770.8338829770711</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1378.810406950777</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C5" t="n">
-        <v>1378.810406950777</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D5" t="n">
-        <v>1378.810406950777</v>
+        <v>684.9061825519796</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>299.1179299537353</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>292.1724292045319</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,16 +4567,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.949738926588</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1768.949738926588</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y5" t="n">
-        <v>1378.810406950777</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>527.264525153022</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>821.9680821844936</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.054313852967</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>623.1181309250601</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>100.89354110662</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1194.495357826737</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>1194.495357826737</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>973.7027786832067</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3314.750276526634</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3108.772528910857</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3108.772528910857</v>
       </c>
       <c r="V8" t="n">
-        <v>3029.404953444628</v>
+        <v>3108.772528910857</v>
       </c>
       <c r="W8" t="n">
-        <v>2676.636298174514</v>
+        <v>3108.772528910857</v>
       </c>
       <c r="X8" t="n">
-        <v>2303.170539913434</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.7644039315074</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1431.889936111164</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V10" t="n">
-        <v>1177.205447905277</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W10" t="n">
-        <v>1177.205447905277</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>1177.205447905277</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y10" t="n">
-        <v>956.4128687617472</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5132,13 +5132,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1842.070412183399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.385923977512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,19 +5363,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755821</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>415.5933575433587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>415.5933575433587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>2031.40580664033</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1742.330579984527</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1487.64609177864</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1198.22892174168</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>733.4550657171301</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>583.3384263047943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408906</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2344.887784772826</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.701365648819</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>962.6357307816187</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>793.6995478537118</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>643.582908441376</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>495.6698148589829</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>348.7798673610725</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>181.5837680759525</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.284195611858</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1578.981115722978</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7502,16 +7502,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.3544215660705</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1519.553721644579</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1230.136551607618</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1002.147000709601</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.3544215660705</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8066,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>231.2582814363237</v>
       </c>
       <c r="O3" t="n">
-        <v>70.03064962107902</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>105.1672460959151</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>55.21102825632967</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>152.1477127454055</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>66.3624843553866</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
-        <v>53.405278868523</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>113.047316183739</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>146.3469868924064</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.7894017452187</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>212.9445005827197</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.3804465798160095</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>84.99383243580189</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
@@ -26331,31 +26331,31 @@
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403383</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819083</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26432,7 +26432,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26453,7 +26453,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706904.3213479271</v>
+        <v>-706904.3213479277</v>
       </c>
       <c r="C6" t="n">
-        <v>407847.4622279924</v>
+        <v>407847.4622279921</v>
       </c>
       <c r="D6" t="n">
-        <v>247831.9994799921</v>
+        <v>247831.9994799927</v>
       </c>
       <c r="E6" t="n">
-        <v>190276.3667367485</v>
+        <v>189928.9874823913</v>
       </c>
       <c r="F6" t="n">
-        <v>515688.8285441034</v>
+        <v>515341.4492897464</v>
       </c>
       <c r="G6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897465</v>
       </c>
       <c r="H6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897468</v>
       </c>
       <c r="I6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897465</v>
       </c>
       <c r="J6" t="n">
-        <v>348083.6507341207</v>
+        <v>347736.271479764</v>
       </c>
       <c r="K6" t="n">
-        <v>515688.8285441034</v>
+        <v>515341.4492897465</v>
       </c>
       <c r="L6" t="n">
-        <v>467394.8585359126</v>
+        <v>467047.4792815558</v>
       </c>
       <c r="M6" t="n">
-        <v>430633.8006085916</v>
+        <v>430286.4213542347</v>
       </c>
       <c r="N6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897464</v>
       </c>
       <c r="O6" t="n">
-        <v>515688.8285441036</v>
+        <v>515341.4492897464</v>
       </c>
       <c r="P6" t="n">
-        <v>515688.8285441034</v>
+        <v>515341.4492897465</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,14 +27387,14 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>102.3227608012456</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>238.318920920057</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>104.3069227932026</v>
       </c>
       <c r="T4" t="n">
-        <v>109.237722074053</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>252.7945996428573</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>238.741229235261</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>55.64630821066981</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>69.74043970852037</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>98.44077215646466</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>285.5085709461385</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>104.2423742942737</v>
+        <v>65.92599321748332</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32083,22 +32083,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>300.768778117042</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32241,7 +32241,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175675</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34447,10 +34447,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>288.8958573929172</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>622.4553810291977</v>
       </c>
       <c r="O3" t="n">
-        <v>405.455331617202</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>291.7547423393999</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>169.4270660337087</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>157.5541453095838</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2510131.116174495</v>
+        <v>2511891.646477281</v>
       </c>
     </row>
     <row r="7">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>22.19039300819541</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.12945459754877</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>100.6867690249414</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>90.35553756853483</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>172.806473537693</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>23.47240143010489</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>124.0961330064684</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>49.15028699323076</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>380.4780903101793</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.74698963171117</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>220.2858449881296</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695389</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>85.08368458989422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>77.12517954596439</v>
       </c>
     </row>
     <row r="14">
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286387</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>34.67929910923817</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3082,13 +3082,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1230.118083357703</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="C2" t="n">
-        <v>1230.118083357703</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4330,7 +4330,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2540.996444968288</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2540.996444968288</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2287.415384232468</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1956.352496888897</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1603.583841618783</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1230.118083357703</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1230.118083357703</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.8338829770711</v>
+        <v>934.7929217761711</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>765.8567388482642</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>615.7400994359284</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>467.8270058535353</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>320.9370583556249</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>152.9505936639035</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>152.9505936639035</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1442.594493823883</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1219.616013018619</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1219.616013018619</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1219.616013018619</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1219.616013018619</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>991.6264621206012</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.8338829770711</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D5" t="n">
-        <v>684.9061825519796</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
-        <v>299.1179299537353</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>292.1724292045319</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2413.93062453258</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>2040.4648662715</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163263</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657496</v>
+        <v>643.5623317901019</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378427</v>
+        <v>474.626148862195</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255069</v>
+        <v>324.5095094498593</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431138</v>
+        <v>176.5964158674661</v>
       </c>
       <c r="F7" t="n">
-        <v>249.6324392431138</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>249.6324392431138</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>100.89354110662</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959893</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="8">
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3314.750276526634</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3108.772528910857</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3108.772528910857</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>3108.772528910857</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W8" t="n">
-        <v>3108.772528910857</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2729.488742017581</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403938</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1704.783593555029</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.099105349142</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1160.681935312181</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>932.6923844141637</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.8998052706336</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,16 +5056,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5108,16 +5108,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>261.8464821474262</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5241,10 +5241,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5600,13 +5600,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5834,22 +5834,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408906</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.887784772826</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2125.286319795768</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2125.286319795768</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1870.601831589881</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.18466155292</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,13 +6551,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6785,13 +6785,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6928,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7368,7 +7368,7 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
         <v>1202.091371290588</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7842,13 +7842,13 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
         <v>753.3092412490405</v>
@@ -8066,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>224.3355197601779</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363237</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>55.21102825632967</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>141.4594738061304</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>146.3469868924064</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="11">
@@ -26316,28 +26316,28 @@
         <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448203</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597551</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
@@ -26349,7 +26349,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597547</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.858070943674696e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.966367438722094e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744349</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26444,10 +26444,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744346</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-706904.3213479277</v>
+        <v>-706904.3213479274</v>
       </c>
       <c r="C6" t="n">
-        <v>407847.4622279921</v>
+        <v>407847.4622279925</v>
       </c>
       <c r="D6" t="n">
-        <v>247831.9994799927</v>
+        <v>247831.9994799925</v>
       </c>
       <c r="E6" t="n">
-        <v>189928.9874823913</v>
+        <v>190241.6288113125</v>
       </c>
       <c r="F6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="G6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="H6" t="n">
-        <v>515341.4492897468</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="I6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="J6" t="n">
-        <v>347736.271479764</v>
+        <v>348048.9128086852</v>
       </c>
       <c r="K6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="L6" t="n">
-        <v>467047.4792815558</v>
+        <v>467360.1206104771</v>
       </c>
       <c r="M6" t="n">
-        <v>430286.4213542347</v>
+        <v>430599.062683156</v>
       </c>
       <c r="N6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="O6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.0906186677</v>
       </c>
       <c r="P6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186678</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.214528752918507e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.214528752918507e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.214528752918507e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.214528752918507e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.214528752918507e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.214528752918507e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27017,13 +27017,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.214528752918507e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.214528752918507e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>359.7399770640664</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>102.3227608012456</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.109826178959182</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>104.3069227932026</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>238.741229235261</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>183.1857835501289</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>21.32491501646285</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>55.64630821066981</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>2.255751353301321</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>98.44077215646466</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>65.92599321748332</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.406874616804998e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.214528752918507e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32241,7 +32241,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175675</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
+        <v>591.2668520422184</v>
+      </c>
+      <c r="N3" t="n">
+        <v>391.1970995928739</v>
+      </c>
+      <c r="O3" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="N3" t="n">
-        <v>622.4553810291977</v>
-      </c>
-      <c r="O3" t="n">
-        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
